--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="65">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1717,57 +1717,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-    </row>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
     <row r="12"/>
   </sheetData>
   <mergeCells count="1">
